--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.28954723061241</v>
+        <v>40.42873533333334</v>
       </c>
       <c r="H2">
-        <v>9.28954723061241</v>
+        <v>121.286206</v>
       </c>
       <c r="I2">
-        <v>0.02042324989678954</v>
+        <v>0.08313576592793961</v>
       </c>
       <c r="J2">
-        <v>0.02042324989678954</v>
+        <v>0.08313576592793961</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.137228899987592</v>
+        <v>0.21127</v>
       </c>
       <c r="N2">
-        <v>0.137228899987592</v>
+        <v>0.63381</v>
       </c>
       <c r="O2">
-        <v>0.01670402871563708</v>
+        <v>0.02468048274231428</v>
       </c>
       <c r="P2">
-        <v>0.01670402871563708</v>
+        <v>0.02468048274231428</v>
       </c>
       <c r="Q2">
-        <v>1.274794347839723</v>
+        <v>8.541378913873332</v>
       </c>
       <c r="R2">
-        <v>1.274794347839723</v>
+        <v>76.87241022486</v>
       </c>
       <c r="S2">
-        <v>0.0003411505527426045</v>
+        <v>0.002051830836253593</v>
       </c>
       <c r="T2">
-        <v>0.0003411505527426045</v>
+        <v>0.002051830836253593</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.28954723061241</v>
+        <v>40.42873533333334</v>
       </c>
       <c r="H3">
-        <v>9.28954723061241</v>
+        <v>121.286206</v>
       </c>
       <c r="I3">
-        <v>0.02042324989678954</v>
+        <v>0.08313576592793961</v>
       </c>
       <c r="J3">
-        <v>0.02042324989678954</v>
+        <v>0.08313576592793961</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.39780847327386</v>
+        <v>3.467027333333334</v>
       </c>
       <c r="N3">
-        <v>3.39780847327386</v>
+        <v>10.401082</v>
       </c>
       <c r="O3">
-        <v>0.4135942961936839</v>
+        <v>0.405016842275123</v>
       </c>
       <c r="P3">
-        <v>0.4135942961936839</v>
+        <v>0.405016842275123</v>
       </c>
       <c r="Q3">
-        <v>31.56410229305257</v>
+        <v>140.1675304527658</v>
       </c>
       <c r="R3">
-        <v>31.56410229305257</v>
+        <v>1261.507774074892</v>
       </c>
       <c r="S3">
-        <v>0.008446939667050396</v>
+        <v>0.03367138539625786</v>
       </c>
       <c r="T3">
-        <v>0.008446939667050396</v>
+        <v>0.03367138539625786</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.28954723061241</v>
+        <v>40.42873533333334</v>
       </c>
       <c r="H4">
-        <v>9.28954723061241</v>
+        <v>121.286206</v>
       </c>
       <c r="I4">
-        <v>0.02042324989678954</v>
+        <v>0.08313576592793961</v>
       </c>
       <c r="J4">
-        <v>0.02042324989678954</v>
+        <v>0.08313576592793961</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.68028016023443</v>
+        <v>4.881908</v>
       </c>
       <c r="N4">
-        <v>4.68028016023443</v>
+        <v>14.645724</v>
       </c>
       <c r="O4">
-        <v>0.5697016750906791</v>
+        <v>0.5703026749825627</v>
       </c>
       <c r="P4">
-        <v>0.5697016750906791</v>
+        <v>0.5703026749825627</v>
       </c>
       <c r="Q4">
-        <v>43.47768360099595</v>
+        <v>197.3693664536827</v>
       </c>
       <c r="R4">
-        <v>43.47768360099595</v>
+        <v>1776.324298083144</v>
       </c>
       <c r="S4">
-        <v>0.01163515967699654</v>
+        <v>0.04741254969542816</v>
       </c>
       <c r="T4">
-        <v>0.01163515967699654</v>
+        <v>0.04741254969542816</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>412.201254264705</v>
+        <v>412.4720866666667</v>
       </c>
       <c r="H5">
-        <v>412.201254264705</v>
+        <v>1237.41626</v>
       </c>
       <c r="I5">
-        <v>0.9062324583351271</v>
+        <v>0.84818836320749</v>
       </c>
       <c r="J5">
-        <v>0.9062324583351271</v>
+        <v>0.84818836320749</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.137228899987592</v>
+        <v>0.21127</v>
       </c>
       <c r="N5">
-        <v>0.137228899987592</v>
+        <v>0.63381</v>
       </c>
       <c r="O5">
-        <v>0.01670402871563708</v>
+        <v>0.02468048274231428</v>
       </c>
       <c r="P5">
-        <v>0.01670402871563708</v>
+        <v>0.02468048274231428</v>
       </c>
       <c r="Q5">
-        <v>56.56592469625119</v>
+        <v>87.14297775006666</v>
       </c>
       <c r="R5">
-        <v>56.56592469625119</v>
+        <v>784.2867997505999</v>
       </c>
       <c r="S5">
-        <v>0.01513773300707235</v>
+        <v>0.02093369826037425</v>
       </c>
       <c r="T5">
-        <v>0.01513773300707235</v>
+        <v>0.02093369826037425</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>412.201254264705</v>
+        <v>412.4720866666667</v>
       </c>
       <c r="H6">
-        <v>412.201254264705</v>
+        <v>1237.41626</v>
       </c>
       <c r="I6">
-        <v>0.9062324583351271</v>
+        <v>0.84818836320749</v>
       </c>
       <c r="J6">
-        <v>0.9062324583351271</v>
+        <v>0.84818836320749</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.39780847327386</v>
+        <v>3.467027333333334</v>
       </c>
       <c r="N6">
-        <v>3.39780847327386</v>
+        <v>10.401082</v>
       </c>
       <c r="O6">
-        <v>0.4135942961936839</v>
+        <v>0.405016842275123</v>
       </c>
       <c r="P6">
-        <v>0.4135942961936839</v>
+        <v>0.405016842275123</v>
       </c>
       <c r="Q6">
-        <v>1400.580914434728</v>
+        <v>1430.051998710369</v>
       </c>
       <c r="R6">
-        <v>1400.580914434728</v>
+        <v>12870.46798839332</v>
       </c>
       <c r="S6">
-        <v>0.3748125757929888</v>
+        <v>0.3435305725208028</v>
       </c>
       <c r="T6">
-        <v>0.3748125757929888</v>
+        <v>0.3435305725208028</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>412.201254264705</v>
+        <v>412.4720866666667</v>
       </c>
       <c r="H7">
-        <v>412.201254264705</v>
+        <v>1237.41626</v>
       </c>
       <c r="I7">
-        <v>0.9062324583351271</v>
+        <v>0.84818836320749</v>
       </c>
       <c r="J7">
-        <v>0.9062324583351271</v>
+        <v>0.84818836320749</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.68028016023443</v>
+        <v>4.881908</v>
       </c>
       <c r="N7">
-        <v>4.68028016023443</v>
+        <v>14.645724</v>
       </c>
       <c r="O7">
-        <v>0.5697016750906791</v>
+        <v>0.5703026749825627</v>
       </c>
       <c r="P7">
-        <v>0.5697016750906791</v>
+        <v>0.5703026749825627</v>
       </c>
       <c r="Q7">
-        <v>1929.217352358847</v>
+        <v>2013.650779674693</v>
       </c>
       <c r="R7">
-        <v>1929.217352358847</v>
+        <v>18122.85701707224</v>
       </c>
       <c r="S7">
-        <v>0.516282149535066</v>
+        <v>0.483724092426313</v>
       </c>
       <c r="T7">
-        <v>0.516282149535066</v>
+        <v>0.483724092426313</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.3607660836844</v>
+        <v>33.396921</v>
       </c>
       <c r="H8">
-        <v>33.3607660836844</v>
+        <v>100.190763</v>
       </c>
       <c r="I8">
-        <v>0.07334429176808338</v>
+        <v>0.0686758708645703</v>
       </c>
       <c r="J8">
-        <v>0.07334429176808338</v>
+        <v>0.0686758708645703</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.137228899987592</v>
+        <v>0.21127</v>
       </c>
       <c r="N8">
-        <v>0.137228899987592</v>
+        <v>0.63381</v>
       </c>
       <c r="O8">
-        <v>0.01670402871563708</v>
+        <v>0.02468048274231428</v>
       </c>
       <c r="P8">
-        <v>0.01670402871563708</v>
+        <v>0.02468048274231428</v>
       </c>
       <c r="Q8">
-        <v>4.578061232407378</v>
+        <v>7.055767499669999</v>
       </c>
       <c r="R8">
-        <v>4.578061232407378</v>
+        <v>63.50190749702999</v>
       </c>
       <c r="S8">
-        <v>0.001225145155822129</v>
+        <v>0.001694953645686431</v>
       </c>
       <c r="T8">
-        <v>0.001225145155822129</v>
+        <v>0.001694953645686432</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.3607660836844</v>
+        <v>33.396921</v>
       </c>
       <c r="H9">
-        <v>33.3607660836844</v>
+        <v>100.190763</v>
       </c>
       <c r="I9">
-        <v>0.07334429176808338</v>
+        <v>0.0686758708645703</v>
       </c>
       <c r="J9">
-        <v>0.07334429176808338</v>
+        <v>0.0686758708645703</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.39780847327386</v>
+        <v>3.467027333333334</v>
       </c>
       <c r="N9">
-        <v>3.39780847327386</v>
+        <v>10.401082</v>
       </c>
       <c r="O9">
-        <v>0.4135942961936839</v>
+        <v>0.405016842275123</v>
       </c>
       <c r="P9">
-        <v>0.4135942961936839</v>
+        <v>0.405016842275123</v>
       </c>
       <c r="Q9">
-        <v>113.3534936740501</v>
+        <v>115.788037956174</v>
       </c>
       <c r="R9">
-        <v>113.3534936740501</v>
+        <v>1042.092341605566</v>
       </c>
       <c r="S9">
-        <v>0.03033478073364465</v>
+        <v>0.02781488435806239</v>
       </c>
       <c r="T9">
-        <v>0.03033478073364465</v>
+        <v>0.02781488435806239</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.3607660836844</v>
+        <v>33.396921</v>
       </c>
       <c r="H10">
-        <v>33.3607660836844</v>
+        <v>100.190763</v>
       </c>
       <c r="I10">
-        <v>0.07334429176808338</v>
+        <v>0.0686758708645703</v>
       </c>
       <c r="J10">
-        <v>0.07334429176808338</v>
+        <v>0.0686758708645703</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.68028016023443</v>
+        <v>4.881908</v>
       </c>
       <c r="N10">
-        <v>4.68028016023443</v>
+        <v>14.645724</v>
       </c>
       <c r="O10">
-        <v>0.5697016750906791</v>
+        <v>0.5703026749825627</v>
       </c>
       <c r="P10">
-        <v>0.5697016750906791</v>
+        <v>0.5703026749825627</v>
       </c>
       <c r="Q10">
-        <v>156.1377316316898</v>
+        <v>163.040695805268</v>
       </c>
       <c r="R10">
-        <v>156.1377316316898</v>
+        <v>1467.366262247412</v>
       </c>
       <c r="S10">
-        <v>0.04178436587861661</v>
+        <v>0.03916603286082149</v>
       </c>
       <c r="T10">
-        <v>0.04178436587861661</v>
+        <v>0.03916603286082149</v>
       </c>
     </row>
   </sheetData>
